--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/17/word_level_predictions_17.xlsx
@@ -10717,7 +10717,7 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G198" s="2" t="b">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G207" s="2" t="b">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11474,676 +11474,676 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>19</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>3</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>19</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>4</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>19</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>5</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>19</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>6</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>19</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>7</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>19</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>8</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>19</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>9</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>19</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>10</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>19</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>11</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>19</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>12</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>19</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>restricted</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>13</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>19</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>14</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>19</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>15</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12670,262 +12670,262 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/17/word_level_predictions_17.xlsx
@@ -10717,7 +10717,7 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G198" s="2" t="b">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G207" s="2" t="b">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11474,676 +11474,676 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>Flight</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>4</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>altitude</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>5</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>restricted</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>6</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
-        <v>7</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>19</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>8</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>19</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>9</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>19</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D220" t="n">
-        <v>10</v>
-      </c>
-      <c r="E220" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>nnn</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>19</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Flight</t>
-        </is>
-      </c>
-      <c r="D221" t="n">
-        <v>11</v>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>19</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>altitude</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>12</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>19</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>restricted</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>13</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>19</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>14</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>19</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>nnn</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>15</v>
-      </c>
-      <c r="E225" t="inlineStr">
+      <c r="F225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12670,262 +12670,262 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>20</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>20</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>10</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>20</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>11</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>20</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>12</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>20</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>13</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
